--- a/Data/final_tables/BARD1_OddsRatios_table.xlsx
+++ b/Data/final_tables/BARD1_OddsRatios_table.xlsx
@@ -643,7 +643,7 @@
         <v>121</v>
       </c>
       <c r="G4" t="n">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="H4" t="n">
         <v>3805</v>
@@ -661,11 +661,11 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1.2 (0.99-1.45)</t>
+          <t>1.2 (0.99-1.46)</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>0.07325696564508334</v>
+        <v>0.06493753910414671</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="H7" t="n">
         <v>3805</v>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>1.033261576878818e-33</v>
+        <v>1.614976907397291e-33</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
         <v>6</v>
       </c>
       <c r="G10" t="n">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="H10" t="n">
         <v>3805</v>
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>1.316645161286124e-32</v>
+        <v>2.004062070859862e-32</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>57</v>
       </c>
       <c r="G13" t="n">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="H13" t="n">
         <v>3805</v>
@@ -1165,11 +1165,11 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.56 (0.43-0.74)</t>
+          <t>0.57 (0.43-0.74)</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>8.655542340193182e-06</v>
+        <v>1.068759231561878e-05</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>68</v>
       </c>
       <c r="G16" t="n">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="H16" t="n">
         <v>3805</v>
@@ -1333,11 +1333,11 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.67 (0.52-0.86)</t>
+          <t>0.68 (0.53-0.87)</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>0.001308581378365951</v>
+        <v>0.00154895359176286</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>35</v>
       </c>
       <c r="G19" t="n">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="H19" t="n">
         <v>3805</v>
@@ -1505,7 +1505,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>1.015201571018694e-12</v>
+        <v>9.972033778249039e-13</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="H22" t="n">
         <v>3805</v>
@@ -1673,7 +1673,7 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>1.745491773758545e-41</v>
+        <v>2.709721763411557e-41</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
